--- a/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
+++ b/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\1-TIC\2025\tabele de iesire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F2BA14-8E59-4A80-B002-07F07AD6C16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B91E22-75D6-4F34-A104-93E815D28771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titlu" sheetId="20" r:id="rId1"/>
@@ -37,15 +37,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2082,15 +2073,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2118,6 +2100,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2138,19 +2129,19 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,10 +2470,10 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="131"/>
       <c r="C2" s="132"/>
       <c r="D2" s="132"/>
@@ -2493,35 +2484,35 @@
       </c>
       <c r="H2" s="147"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="133"/>
       <c r="H3" s="134"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="133"/>
       <c r="H4" s="134"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="133"/>
       <c r="H5" s="134"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="133"/>
       <c r="H6" s="134"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="133"/>
       <c r="H7" s="134"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="133"/>
       <c r="H8" s="134"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="133"/>
       <c r="H9" s="134"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="143" t="s">
         <v>290</v>
       </c>
@@ -2532,7 +2523,7 @@
       <c r="G10" s="144"/>
       <c r="H10" s="145"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="138"/>
       <c r="C11" s="139"/>
       <c r="D11" s="139"/>
@@ -2541,7 +2532,7 @@
       <c r="G11" s="139"/>
       <c r="H11" s="140"/>
     </row>
-    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="148" t="s">
         <v>292</v>
       </c>
@@ -2552,23 +2543,23 @@
       <c r="G12" s="149"/>
       <c r="H12" s="150"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="133"/>
       <c r="H13" s="134"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="133"/>
       <c r="H14" s="134"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="133"/>
       <c r="H15" s="134"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="133"/>
       <c r="H16" s="134"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="135"/>
       <c r="C17" s="136"/>
       <c r="D17" s="136"/>
@@ -2595,36 +2586,36 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="173" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="176" t="s">
+      <c r="D3" s="173" t="s">
         <v>207</v>
       </c>
       <c r="E3" s="183" t="s">
@@ -2634,15 +2625,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="184"/>
       <c r="F4" s="184"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -2658,7 +2649,7 @@
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2690,22 +2681,22 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="173" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="173" t="s">
         <v>207</v>
       </c>
       <c r="E10" s="183" t="s">
@@ -2715,15 +2706,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
+    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="184"/>
       <c r="F11" s="184"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2730,7 @@
       <c r="E12" s="112"/>
       <c r="F12" s="112"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -2759,7 +2750,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -2773,11 +2764,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E10:E11"/>
@@ -2785,6 +2771,11 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2799,24 +2790,24 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
@@ -2827,17 +2818,17 @@
       </c>
       <c r="L2" s="90"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="153" t="s">
         <v>192</v>
       </c>
       <c r="E3" s="185" t="s">
@@ -2854,11 +2845,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="189"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="91" t="s">
         <v>137</v>
       </c>
@@ -2885,7 +2876,7 @@
       </c>
       <c r="M4" s="184"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2926,7 +2917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +2958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2986,22 +2977,22 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="153" t="s">
         <v>192</v>
       </c>
       <c r="E10" s="185" t="s">
@@ -3018,11 +3009,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="166"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="91" t="s">
         <v>137</v>
       </c>
@@ -3049,7 +3040,7 @@
       </c>
       <c r="M11" s="184"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>1</v>
       </c>
@@ -3090,7 +3081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3131,7 +3122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -3150,7 +3141,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" s="56"/>
     </row>
   </sheetData>
@@ -3180,44 +3171,44 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="174" t="s">
         <v>287</v>
       </c>
       <c r="F3" s="190"/>
@@ -3234,11 +3225,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="189"/>
       <c r="B4" s="189"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="82" t="s">
         <v>140</v>
       </c>
@@ -3250,7 +3241,7 @@
       <c r="I4" s="184"/>
       <c r="J4" s="184"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3282,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3314,7 +3305,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3330,25 +3321,25 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="174" t="s">
         <v>287</v>
       </c>
       <c r="F10" s="190"/>
@@ -3365,11 +3356,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
+    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="82" t="s">
         <v>140</v>
       </c>
@@ -3381,7 +3372,7 @@
       <c r="I11" s="184"/>
       <c r="J11" s="184"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3413,7 +3404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3445,7 +3436,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -3463,11 +3454,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A3:A4"/>
@@ -3481,6 +3467,11 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3494,61 +3485,61 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="14.88671875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="57"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="156" t="s">
+      <c r="E3" s="153" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-    </row>
-    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+    </row>
+    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="189"/>
       <c r="B4" s="189"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="82" t="s">
         <v>275</v>
       </c>
@@ -3574,7 +3565,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3612,7 +3603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3650,7 +3641,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3668,41 +3659,41 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>272</v>
       </c>
       <c r="N9" s="55"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="153" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-    </row>
-    <row r="11" spans="1:14" ht="228" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+    </row>
+    <row r="11" spans="1:14" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="82" t="s">
         <v>275</v>
       </c>
@@ -3728,7 +3719,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3766,7 +3757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3804,7 +3795,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -3847,20 +3838,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
@@ -3868,35 +3859,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="176" t="s">
+      <c r="D3" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-    </row>
-    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+    </row>
+    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="189"/>
       <c r="B4" s="189"/>
-      <c r="C4" s="155"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="82" t="s">
         <v>202</v>
       </c>
@@ -3921,7 +3912,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="56"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -4001,35 +3992,35 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-    </row>
-    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+    </row>
+    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="82" t="s">
         <v>202</v>
       </c>
@@ -4052,7 +4043,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4084,7 +4075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4116,7 +4107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4155,48 +4146,48 @@
       <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="191" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="191"/>
       <c r="C2" s="191"/>
     </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="176" t="s">
+      <c r="D3" s="173" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-    </row>
-    <row r="4" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+    </row>
+    <row r="4" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A4" s="189"/>
       <c r="B4" s="189"/>
-      <c r="C4" s="155"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="82" t="s">
         <v>96</v>
       </c>
@@ -4208,7 +4199,7 @@
       </c>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -4228,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -4248,7 +4239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -4260,31 +4251,31 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="173" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-    </row>
-    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+    </row>
+    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="82" t="s">
         <v>96</v>
       </c>
@@ -4295,7 +4286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4315,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4335,7 +4326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4371,28 +4362,28 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="191" t="s">
         <v>166</v>
       </c>
       <c r="B2" s="191"/>
       <c r="C2" s="191"/>
     </row>
-    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4400,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
         <v>0</v>
       </c>
@@ -4443,7 +4434,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>70</v>
       </c>
@@ -4454,12 +4445,12 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="122" t="s">
         <v>71</v>
       </c>
@@ -4476,7 +4467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
         <v>55</v>
       </c>
@@ -4510,7 +4501,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>99</v>
       </c>
@@ -4533,27 +4524,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="42" customWidth="1"/>
-    <col min="4" max="7" width="15.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="42" customWidth="1"/>
+    <col min="4" max="7" width="15.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>197</v>
       </c>
@@ -4565,7 +4556,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="44"/>
@@ -4575,37 +4566,37 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="160" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="153"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="K4" s="163"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4618,12 +4609,12 @@
       <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="161"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
-    </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="158"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="163"/>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -4655,7 +4646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4678,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4703,12 +4694,12 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>214</v>
       </c>
@@ -4722,36 +4713,36 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160" t="s">
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="J11" s="151" t="s">
+      <c r="J11" s="161" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="163"/>
+    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4764,11 +4755,11 @@
       <c r="G12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="158"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>61</v>
       </c>
@@ -4832,7 +4823,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="125" t="s">
         <v>99</v>
       </c>
@@ -4850,6 +4841,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:G11"/>
@@ -4860,11 +4856,6 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4879,26 +4870,26 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="39" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
@@ -4918,7 +4909,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="168"/>
@@ -4926,7 +4917,7 @@
       <c r="E4" s="165"/>
       <c r="F4" s="164"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>15</v>
       </c>
@@ -4946,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>0</v>
       </c>
@@ -4966,7 +4957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>58</v>
       </c>
@@ -4978,16 +4969,16 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="164" t="s">
@@ -5003,15 +4994,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
+    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="168"/>
       <c r="D11" s="168"/>
       <c r="E11" s="165"/>
       <c r="F11" s="164"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5051,7 +5042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5091,25 +5082,25 @@
       <selection activeCell="O9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="33" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="33" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
@@ -5127,7 +5118,7 @@
       <c r="G3" s="169"/>
       <c r="H3" s="169"/>
     </row>
-    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="170"/>
@@ -5147,7 +5138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -5199,7 +5190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>70</v>
       </c>
@@ -5213,7 +5204,7 @@
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="130"/>
@@ -5223,16 +5214,16 @@
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="153" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="164" t="s">
@@ -5246,9 +5237,9 @@
       <c r="G11" s="169"/>
       <c r="H11" s="169"/>
     </row>
-    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="155"/>
+    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="170"/>
       <c r="D12" s="71" t="s">
         <v>65</v>
@@ -5266,7 +5257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>1</v>
       </c>
@@ -5292,7 +5283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -5318,7 +5309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>99</v>
       </c>
@@ -5355,36 +5346,36 @@
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="157" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="166" t="s">
@@ -5396,22 +5387,22 @@
       <c r="D3" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="176" t="s">
+      <c r="E3" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
+    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157"/>
       <c r="B4" s="167"/>
       <c r="C4" s="175"/>
       <c r="D4" s="175"/>
@@ -5441,7 +5432,7 @@
       </c>
       <c r="M4" s="172"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5482,7 +5473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -5542,16 +5533,16 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="175" t="s">
@@ -5560,23 +5551,23 @@
       <c r="D10" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
       <c r="M10" s="171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="155"/>
+    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="175"/>
       <c r="D11" s="175"/>
       <c r="E11" s="71" t="s">
@@ -5605,7 +5596,7 @@
       </c>
       <c r="M11" s="172"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5646,7 +5637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +5678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5708,18 +5699,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5734,41 +5725,41 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="153" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="178" t="s">
@@ -5784,10 +5775,10 @@
       <c r="L3" s="178"/>
       <c r="M3" s="178"/>
     </row>
-    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
-      <c r="C4" s="155"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="91" t="s">
         <v>161</v>
       </c>
@@ -5819,7 +5810,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +5851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -5901,7 +5892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -5920,19 +5911,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="153" t="s">
         <v>185</v>
       </c>
       <c r="D10" s="178" t="s">
@@ -5948,10 +5939,10 @@
       <c r="L10" s="178"/>
       <c r="M10" s="178"/>
     </row>
-    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
+    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="91" t="s">
         <v>161</v>
       </c>
@@ -5983,7 +5974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6024,7 +6015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6065,7 +6056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6103,34 +6094,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
@@ -6147,11 +6138,11 @@
       <c r="F3" s="180"/>
       <c r="G3" s="180"/>
       <c r="H3" s="180"/>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="173" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="179"/>
       <c r="C4" s="175"/>
@@ -6170,9 +6161,9 @@
       <c r="H4" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="176"/>
-    </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="173"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6221,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6245,16 +6236,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="176" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="175" t="s">
@@ -6267,13 +6258,13 @@
       <c r="F10" s="180"/>
       <c r="G10" s="180"/>
       <c r="H10" s="180"/>
-      <c r="I10" s="176" t="s">
+      <c r="I10" s="173" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="174"/>
+    <row r="11" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="175"/>
       <c r="D11" s="23" t="s">
         <v>73</v>
@@ -6290,9 +6281,9 @@
       <c r="H11" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="176"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="173"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6321,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>64</v>
       </c>
@@ -6350,7 +6341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -6365,7 +6356,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="54"/>
     </row>
   </sheetData>
@@ -6390,39 +6381,39 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="21.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="24" customWidth="1"/>
+    <col min="5" max="6" width="21.109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="176" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="180" t="s">
@@ -6440,10 +6431,10 @@
       </c>
       <c r="I3" s="175"/>
     </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157"/>
       <c r="B4" s="181"/>
-      <c r="C4" s="174"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="30" t="s">
         <v>100</v>
       </c>
@@ -6459,7 +6450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6488,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6532,19 +6523,19 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+    <row r="10" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="176" t="s">
         <v>233</v>
       </c>
       <c r="D10" s="180" t="s">
@@ -6562,10 +6553,10 @@
       </c>
       <c r="I10" s="175"/>
     </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
+    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="30" t="s">
         <v>100</v>
       </c>
@@ -6581,7 +6572,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6610,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>55</v>
       </c>
@@ -6639,7 +6630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6656,6 +6647,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:E10"/>
@@ -6663,13 +6661,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6677,40 +6668,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="173" t="s">
         <v>244</v>
       </c>
       <c r="D3" s="182" t="s">
@@ -6724,10 +6715,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="176"/>
+    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="16" t="s">
         <v>246</v>
       </c>
@@ -6737,7 +6728,7 @@
       <c r="F4" s="175"/>
       <c r="G4" s="175"/>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6760,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -6783,7 +6774,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -6796,12 +6787,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>250</v>
       </c>
@@ -6809,14 +6800,14 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+    <row r="10" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="173" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="182" t="s">
@@ -6830,10 +6821,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="176"/>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="16" t="s">
         <v>246</v>
       </c>
@@ -6843,7 +6834,7 @@
       <c r="F11" s="175"/>
       <c r="G11" s="175"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6889,7 +6880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6901,6 +6892,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="31"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>41147749</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
+++ b/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\1-TIC\2025\tabele de iesire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B91E22-75D6-4F34-A104-93E815D28771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC66BB-1B29-4ED2-8F2A-813716B89AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titlu" sheetId="20" r:id="rId1"/>
@@ -1974,7 +1974,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2073,6 +2072,15 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2100,15 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,19 +2128,19 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2181,6 +2180,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2470,103 +2472,103 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="131"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="146" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="145" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="147"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="133"/>
-      <c r="H3" s="134"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
-      <c r="H4" s="134"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="133"/>
-      <c r="H5" s="134"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="133"/>
-      <c r="H7" s="134"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="133"/>
-      <c r="H8" s="134"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="133"/>
-      <c r="H9" s="134"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="143" t="s">
+      <c r="H2" s="146"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="132"/>
+      <c r="H3" s="133"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="132"/>
+      <c r="H4" s="133"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="132"/>
+      <c r="H5" s="133"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="132"/>
+      <c r="H6" s="133"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="132"/>
+      <c r="H7" s="133"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="132"/>
+      <c r="H8" s="133"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="132"/>
+      <c r="H9" s="133"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="142" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="140"/>
-    </row>
-    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="148" t="s">
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
+    </row>
+    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="147" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
-      <c r="H13" s="134"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="133"/>
-      <c r="H14" s="134"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="133"/>
-      <c r="H15" s="134"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
-      <c r="H16" s="134"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="149"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="132"/>
+      <c r="H13" s="133"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="132"/>
+      <c r="H14" s="133"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="132"/>
+      <c r="H15" s="133"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="132"/>
+      <c r="H16" s="133"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2583,57 +2585,57 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A10" sqref="A10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="175" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="183" t="s">
+      <c r="E3" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="183" t="s">
+      <c r="F3" s="182" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -2646,10 +2648,14 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="191">
+        <v>3</v>
+      </c>
+      <c r="F5" s="191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2681,40 +2687,40 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="175" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="182" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -2727,10 +2733,14 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="191">
+        <v>3</v>
+      </c>
+      <c r="F12" s="191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -2764,6 +2774,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E10:E11"/>
@@ -2771,11 +2786,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2786,28 +2796,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736F308-83F1-402B-98F6-39444BAC5371}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
@@ -2818,38 +2828,38 @@
       </c>
       <c r="L2" s="90"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="E3" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="183" t="s">
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="182" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="91" t="s">
         <v>137</v>
       </c>
@@ -2874,9 +2884,9 @@
       <c r="L4" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="184"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="183"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2977,43 +2987,43 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="166" t="s">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="185" t="s">
+      <c r="E10" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="183" t="s">
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="182" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
+    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="165"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="91" t="s">
         <v>137</v>
       </c>
@@ -3038,9 +3048,9 @@
       <c r="L11" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="M11" s="184"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="183"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3122,7 +3132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -3141,7 +3151,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="56"/>
     </row>
   </sheetData>
@@ -3171,77 +3181,77 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="183" t="s">
+      <c r="F3" s="189"/>
+      <c r="G3" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="H3" s="183" t="s">
+      <c r="H3" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="182" t="s">
         <v>269</v>
       </c>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="188"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="82" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3321,58 +3331,58 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="174" t="s">
+      <c r="E10" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="190"/>
-      <c r="G10" s="183" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="183" t="s">
+      <c r="H10" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="182" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="183" t="s">
+      <c r="J10" s="182" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
+    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="82" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3436,7 +3446,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -3454,6 +3464,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A3:A4"/>
@@ -3467,11 +3482,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3485,61 +3495,61 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="8" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="57"/>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-    </row>
-    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+    </row>
+    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="188"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="82" t="s">
         <v>275</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3623,7 @@
       <c r="C6" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="141" t="s">
         <v>273</v>
       </c>
       <c r="E6" s="67" t="s">
@@ -3641,7 +3651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3659,41 +3669,41 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>272</v>
       </c>
       <c r="N9" s="55"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-    </row>
-    <row r="11" spans="1:14" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+    </row>
+    <row r="11" spans="1:14" ht="228" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="82" t="s">
         <v>275</v>
       </c>
@@ -3719,7 +3729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3767,7 +3777,7 @@
       <c r="C13" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="141" t="s">
         <v>273</v>
       </c>
       <c r="E13" s="67" t="s">
@@ -3795,7 +3805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -3838,20 +3848,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
@@ -3859,39 +3869,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="175" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-    </row>
-    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="152"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+    </row>
+    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="188"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="125" t="s">
         <v>280</v>
       </c>
       <c r="F4" s="82" t="s">
@@ -3912,7 +3922,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="56"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3992,39 +4002,39 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="175" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-    </row>
-    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+    </row>
+    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>280</v>
       </c>
       <c r="F11" s="82" t="s">
@@ -4043,7 +4053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +4085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4146,52 +4156,52 @@
       <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="191" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-    </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+    </row>
+    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-    </row>
-    <row r="4" spans="1:8" ht="138" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="152"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+    </row>
+    <row r="4" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="188"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="112" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="82" t="s">
@@ -4199,7 +4209,7 @@
       </c>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -4212,14 +4222,14 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="113">
         <v>4</v>
       </c>
       <c r="F5" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -4229,17 +4239,17 @@
       <c r="C6" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -4251,42 +4261,42 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-    </row>
-    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+    </row>
+    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>95</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4299,14 +4309,14 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="114">
+      <c r="E12" s="113">
         <v>4</v>
       </c>
       <c r="F12" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4316,17 +4326,17 @@
       <c r="C13" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4362,49 +4372,49 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="191" t="s">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-    </row>
-    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+    </row>
+    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="116" t="s">
         <v>196</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="60">
@@ -4413,28 +4423,28 @@
       <c r="D4" s="61">
         <v>2</v>
       </c>
-      <c r="E4" s="119">
+      <c r="E4" s="118">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="120" t="s">
+    <row r="5" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="120" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>70</v>
       </c>
@@ -4445,29 +4455,29 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
+    <row r="9" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="122" t="s">
         <v>196</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
         <v>1</v>
       </c>
@@ -4480,11 +4490,11 @@
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="119">
+      <c r="E10" s="118">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="s">
         <v>55</v>
       </c>
@@ -4497,11 +4507,11 @@
       <c r="D11" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="108" t="s">
         <v>99</v>
       </c>
@@ -4524,27 +4534,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="42" customWidth="1"/>
-    <col min="4" max="7" width="15.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="42" customWidth="1"/>
+    <col min="4" max="7" width="15.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>197</v>
       </c>
@@ -4556,7 +4566,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="44"/>
@@ -4566,37 +4576,37 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="150" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="161" t="s">
+      <c r="J4" s="150" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="163"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="160"/>
+      <c r="K4" s="152"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="159"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4609,12 +4619,12 @@
       <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="158"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="163"/>
-    </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H5" s="160"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -4671,14 +4681,14 @@
       <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="124" t="s">
+      <c r="J7" s="123" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4694,12 +4704,12 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>214</v>
       </c>
@@ -4713,36 +4723,36 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151" t="s">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157" t="s">
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="161" t="s">
+      <c r="I11" s="150" t="s">
         <v>238</v>
       </c>
-      <c r="J11" s="161" t="s">
+      <c r="J11" s="150" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="160"/>
+    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4755,11 +4765,11 @@
       <c r="G12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="160"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>61</v>
       </c>
@@ -4823,8 +4833,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="124" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4841,11 +4851,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:G11"/>
@@ -4856,6 +4861,11 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4870,54 +4880,54 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="39" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164"/>
-    </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="163"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>15</v>
       </c>
@@ -4937,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>0</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>58</v>
       </c>
@@ -4969,40 +4979,40 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="164" t="s">
+      <c r="F10" s="163" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="164"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="163"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5082,46 +5092,46 @@
       <selection activeCell="O9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="33" customWidth="1"/>
-    <col min="4" max="8" width="14.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="33" customWidth="1"/>
+    <col min="4" max="8" width="14.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-    </row>
-    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="170"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+    </row>
+    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="71" t="s">
         <v>65</v>
       </c>
@@ -5138,14 +5148,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="127">
         <v>1</v>
       </c>
       <c r="D5" s="26">
@@ -5164,14 +5174,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -5190,57 +5200,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
-      <c r="C8" s="130"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="153" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="169" t="s">
+      <c r="D11" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-    </row>
-    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="170"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+    </row>
+    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="71" t="s">
         <v>65</v>
       </c>
@@ -5257,14 +5267,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="127">
         <v>1</v>
       </c>
       <c r="D13" s="26">
@@ -5283,14 +5293,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="126" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="73" t="s">
@@ -5309,7 +5319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>99</v>
       </c>
@@ -5346,66 +5356,66 @@
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="171" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="170" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
+    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="71" t="s">
         <v>113</v>
       </c>
@@ -5430,9 +5440,9 @@
       <c r="L4" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="172"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="171"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -5533,43 +5543,43 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="171" t="s">
+      <c r="F10" s="175"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="170" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
+    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="71" t="s">
         <v>113</v>
       </c>
@@ -5594,9 +5604,9 @@
       <c r="L11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="172"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="171"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5678,7 +5688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5699,18 +5709,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5725,60 +5735,60 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-    </row>
-    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="152"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+    </row>
+    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="91" t="s">
         <v>161</v>
       </c>
@@ -5810,7 +5820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -5892,7 +5902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -5911,38 +5921,38 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-    </row>
-    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+    </row>
+    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="91" t="s">
         <v>161</v>
       </c>
@@ -5974,7 +5984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6056,7 +6066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6098,54 +6108,54 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="173" t="s">
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="175" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="175"/>
+    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="23" t="s">
         <v>73</v>
       </c>
@@ -6161,9 +6171,9 @@
       <c r="H4" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="173"/>
-    </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="175"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6236,36 +6246,36 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="173" t="s">
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="175" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="175"/>
+    <row r="11" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="23" t="s">
         <v>73</v>
       </c>
@@ -6281,9 +6291,9 @@
       <c r="H11" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="173"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="175"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6312,7 +6322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>64</v>
       </c>
@@ -6341,7 +6351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -6356,7 +6366,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="54"/>
     </row>
   </sheetData>
@@ -6384,65 +6394,65 @@
       <selection activeCell="A3" sqref="A3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="21.109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="24" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="175" t="s">
+      <c r="E3" s="179"/>
+      <c r="F3" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="175"/>
-    </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="177"/>
+      <c r="I3" s="174"/>
+    </row>
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="30" t="s">
         <v>101</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6479,14 +6489,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>232</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -6508,7 +6518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6523,48 +6533,48 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="175" t="s">
+      <c r="E10" s="179"/>
+      <c r="F10" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="175" t="s">
+      <c r="H10" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="I10" s="175"/>
-    </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
+      <c r="I10" s="174"/>
+    </row>
+    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
       <c r="H11" s="30" t="s">
         <v>101</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6601,14 +6611,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>232</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -6630,7 +6640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6647,6 +6657,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:E3"/>
@@ -6654,13 +6671,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6670,65 +6680,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="182"/>
-      <c r="F3" s="175" t="s">
+      <c r="E3" s="181"/>
+      <c r="F3" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="174" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="173"/>
+    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-    </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6751,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -6787,12 +6797,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>250</v>
       </c>
@@ -6800,41 +6810,41 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="182" t="s">
+      <c r="D10" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="175" t="s">
+      <c r="E10" s="181"/>
+      <c r="F10" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="174" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="173"/>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6893,7 +6903,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>41147749</v>
       </c>

--- a/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
+++ b/2025/tabele de iesire/Copy of 2025 03.01tab de iesirePalii_LM(4)-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\1-TIC\2025\tabele de iesire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC66BB-1B29-4ED2-8F2A-813716B89AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E8A90-1A22-44F7-940B-6673CB44C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titlu" sheetId="20" r:id="rId1"/>
@@ -2048,6 +2048,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2180,9 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2472,60 +2472,60 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="130"/>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
       <c r="E2" s="131"/>
       <c r="F2" s="131"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="146" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="146"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="147"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="132"/>
       <c r="H3" s="133"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="132"/>
       <c r="H4" s="133"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="132"/>
       <c r="H5" s="133"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="132"/>
       <c r="H6" s="133"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="132"/>
       <c r="H7" s="133"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="132"/>
       <c r="H8" s="133"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="132"/>
       <c r="H9" s="133"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="143" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="144"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="137"/>
       <c r="C11" s="138"/>
       <c r="D11" s="138"/>
@@ -2534,34 +2534,34 @@
       <c r="G11" s="138"/>
       <c r="H11" s="139"/>
     </row>
-    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+    <row r="12" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="148" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="132"/>
       <c r="H13" s="133"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="132"/>
       <c r="H14" s="133"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="132"/>
       <c r="H15" s="133"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="132"/>
       <c r="H16" s="133"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="134"/>
       <c r="C17" s="135"/>
       <c r="D17" s="135"/>
@@ -2588,54 +2588,54 @@
       <selection activeCell="A10" sqref="A10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="183" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="183" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -2648,14 +2648,14 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="191">
+      <c r="E5" s="142">
         <v>3</v>
       </c>
-      <c r="F5" s="191">
+      <c r="F5" s="142">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2687,40 +2687,40 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="182" t="s">
+      <c r="E10" s="183" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="182" t="s">
+      <c r="F10" s="183" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -2733,14 +2733,14 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="142">
         <v>3</v>
       </c>
-      <c r="F12" s="191">
+      <c r="F12" s="142">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -2796,28 +2796,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736F308-83F1-402B-98F6-39444BAC5371}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
@@ -2828,38 +2828,38 @@
       </c>
       <c r="L2" s="90"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="156" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="182" t="s">
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="183" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
+    <row r="4" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="91" t="s">
         <v>137</v>
       </c>
@@ -2884,9 +2884,9 @@
       <c r="L4" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="183"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="184"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2987,43 +2987,43 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="156" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="182" t="s">
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="183" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
+    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="166"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="91" t="s">
         <v>137</v>
       </c>
@@ -3048,9 +3048,9 @@
       <c r="L11" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="M11" s="183"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="184"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>99</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" s="56"/>
     </row>
   </sheetData>
@@ -3177,81 +3177,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927AC20-95BA-4C86-B225-EBFC30FF7438}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="176" t="s">
+      <c r="E3" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="182" t="s">
+      <c r="F3" s="190"/>
+      <c r="G3" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="183" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
+    <row r="4" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="82" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3331,58 +3331,58 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="182" t="s">
+      <c r="F10" s="190"/>
+      <c r="G10" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="I10" s="182" t="s">
+      <c r="I10" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="183" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
+    <row r="11" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="82" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -3491,65 +3491,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A616B1-0612-4FCA-9DA7-AC99FB6721E8}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="14.88671875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="57"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-    </row>
-    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+    </row>
+    <row r="4" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="82" t="s">
         <v>275</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -3669,41 +3669,41 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>272</v>
       </c>
       <c r="N9" s="55"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-    </row>
-    <row r="11" spans="1:14" ht="228" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+    </row>
+    <row r="11" spans="1:14" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="82" t="s">
         <v>275</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -3844,24 +3844,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E58259-B5E4-4779-9C8D-E5263A520875}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
@@ -3869,35 +3869,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="176" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-    </row>
-    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="154"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+    </row>
+    <row r="4" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="82" t="s">
         <v>202</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="56"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -3930,31 +3930,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="105">
         <v>2</v>
       </c>
-      <c r="D5" s="105">
+      <c r="E5" s="105">
         <v>3</v>
       </c>
-      <c r="E5" s="105">
+      <c r="F5" s="84">
         <v>4</v>
       </c>
-      <c r="F5" s="84">
+      <c r="G5" s="84">
         <v>5</v>
       </c>
-      <c r="G5" s="84">
+      <c r="H5" s="84">
         <v>6</v>
       </c>
-      <c r="H5" s="84">
+      <c r="I5" s="84">
         <v>7</v>
       </c>
-      <c r="I5" s="84">
+      <c r="J5" s="106">
         <v>8</v>
       </c>
-      <c r="J5" s="106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -4002,35 +4002,35 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="176" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-    </row>
-    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+    </row>
+    <row r="11" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="82" t="s">
         <v>202</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4061,31 +4061,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="105">
         <v>2</v>
       </c>
-      <c r="D12" s="105">
+      <c r="E12" s="105">
         <v>3</v>
       </c>
-      <c r="E12" s="105">
+      <c r="F12" s="84">
         <v>4</v>
       </c>
-      <c r="F12" s="84">
+      <c r="G12" s="84">
         <v>5</v>
       </c>
-      <c r="G12" s="84">
+      <c r="H12" s="84">
         <v>6</v>
       </c>
-      <c r="H12" s="84">
+      <c r="I12" s="84">
         <v>7</v>
       </c>
-      <c r="I12" s="84">
+      <c r="J12" s="106">
         <v>8</v>
       </c>
-      <c r="J12" s="106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4152,52 +4152,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B91F12-9F69-48D1-A09C-D99003D26A77}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-    </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+    </row>
+    <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-    </row>
-    <row r="4" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="154"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+    </row>
+    <row r="4" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="82" t="s">
         <v>96</v>
       </c>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -4261,31 +4261,31 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-    </row>
-    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+    </row>
+    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="82" t="s">
         <v>96</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="108" t="s">
         <v>99</v>
       </c>
@@ -4368,32 +4368,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB58D2C8-5005-493D-8A1C-8130C53BD590}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-    </row>
-    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+    </row>
+    <row r="3" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
         <v>1</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>70</v>
       </c>
@@ -4455,12 +4455,12 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
         <v>71</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
         <v>1</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
         <v>55</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>99</v>
       </c>
@@ -4538,23 +4538,23 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="42" customWidth="1"/>
-    <col min="4" max="7" width="15.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="42" customWidth="1"/>
+    <col min="4" max="7" width="15.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>197</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="44"/>
@@ -4576,37 +4576,37 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="159" t="s">
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="151" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="150" t="s">
+      <c r="J4" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="152"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="K4" s="153"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4619,12 +4619,12 @@
       <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
-    </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="161"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4704,12 +4704,12 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>214</v>
       </c>
@@ -4723,36 +4723,36 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="156" t="s">
+      <c r="D11" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159" t="s">
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="150" t="s">
+      <c r="I11" s="151" t="s">
         <v>238</v>
       </c>
-      <c r="J11" s="150" t="s">
+      <c r="J11" s="151" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="162"/>
+    <row r="12" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4765,11 +4765,11 @@
       <c r="G12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="161"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>61</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="124" t="s">
         <v>99</v>
       </c>
@@ -4880,54 +4880,54 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="39" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="164" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="163"/>
-    </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="164"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>0</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>58</v>
       </c>
@@ -4979,40 +4979,40 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="163" t="s">
+      <c r="F10" s="164" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="163"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="164"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5092,46 +5092,46 @@
       <selection activeCell="O9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="33" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="33" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="169" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-    </row>
-    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+    </row>
+    <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="170"/>
       <c r="D4" s="71" t="s">
         <v>65</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>70</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="129"/>
@@ -5224,33 +5224,33 @@
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="169" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-    </row>
-    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+    </row>
+    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="170"/>
       <c r="D12" s="71" t="s">
         <v>65</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>1</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>99</v>
       </c>
@@ -5356,66 +5356,66 @@
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="170" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
+    <row r="4" spans="1:13" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="71" t="s">
         <v>113</v>
       </c>
@@ -5440,9 +5440,9 @@
       <c r="L4" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="171"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="172"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -5543,43 +5543,43 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="170" t="s">
+      <c r="F10" s="176"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
+    <row r="11" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="174"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="71" t="s">
         <v>113</v>
       </c>
@@ -5604,9 +5604,9 @@
       <c r="L11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="171"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="172"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -5735,60 +5735,60 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-    </row>
-    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="154"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+    </row>
+    <row r="4" spans="1:13" ht="283.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="91" t="s">
         <v>161</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -5921,38 +5921,38 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-    </row>
-    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+    </row>
+    <row r="11" spans="1:13" ht="299.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="91" t="s">
         <v>161</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6108,54 +6108,54 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:9" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="175" t="s">
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="176" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="174"/>
+    <row r="4" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="23" t="s">
         <v>73</v>
       </c>
@@ -6171,9 +6171,9 @@
       <c r="H4" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="175"/>
-    </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="176"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6246,36 +6246,36 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="175" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="176" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
+    <row r="11" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="174"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="23" t="s">
         <v>73</v>
       </c>
@@ -6291,9 +6291,9 @@
       <c r="H11" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="175"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="176"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>64</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>99</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="54"/>
     </row>
   </sheetData>
@@ -6394,65 +6394,65 @@
       <selection activeCell="A3" sqref="A3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="21.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="24" customWidth="1"/>
+    <col min="5" max="6" width="21.109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="174" t="s">
+      <c r="E3" s="180"/>
+      <c r="F3" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="174"/>
-    </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="173"/>
+      <c r="I3" s="175"/>
+    </row>
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="30" t="s">
         <v>101</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
@@ -6533,48 +6533,48 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="174" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="174" t="s">
+      <c r="G10" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="174" t="s">
+      <c r="H10" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="I10" s="174"/>
-    </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
+      <c r="I10" s="175"/>
+    </row>
+    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="174"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
       <c r="H11" s="30" t="s">
         <v>101</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>55</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6684,61 +6684,61 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="182" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="174" t="s">
+      <c r="E3" s="182"/>
+      <c r="F3" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="175" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="175"/>
+    <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="176"/>
       <c r="D4" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-    </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -6797,12 +6797,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>250</v>
       </c>
@@ -6810,41 +6810,41 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="182" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="174" t="s">
+      <c r="E10" s="182"/>
+      <c r="F10" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="174" t="s">
+      <c r="G10" s="175" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="175"/>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>64</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>99</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>41147749</v>
       </c>
